--- a/data/long_bre/P24_1-Urba-long_bre.xlsx
+++ b/data/long_bre/P24_1-Urba-long_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -599,12 +615,12 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,66</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -614,22 +630,32 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-2,33</t>
+          <t>-1,99</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,54%</t>
+          <t>-2,62</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-15,45%</t>
+          <t>3,7%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-7,49%</t>
+          <t>-14,98%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-6,43%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-9,83%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,51; 6,83</t>
+          <t>-5,7; 6,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-13,27; 1,38</t>
+          <t>-13,34; 2,49</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,9; 3,69</t>
+          <t>-9,54; 4,08</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-21,9; 30,49</t>
+          <t>-10,13; 4,51</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-36,1; 5,09</t>
+          <t>-20,16; 28,4</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-26,63; 14,53</t>
+          <t>-34,17; 9,79</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-25,6; 15,05</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-32,76; 20,9</t>
         </is>
       </c>
     </row>
@@ -675,37 +711,47 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,69</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-2,42</t>
+          <t>-2,91</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,45%</t>
+          <t>3,99</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,61%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-5,0%</t>
+          <t>0,21%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-6,04%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>9,96%</t>
         </is>
       </c>
     </row>
@@ -718,32 +764,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 8,45</t>
+          <t>-5,77; 8,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,99; 8,23</t>
+          <t>-6,88; 7,31</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-8,65; 5,1</t>
+          <t>-9,31; 4,05</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-9,88; 18,87</t>
+          <t>-3,78; 13,06</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-12,98; 21,23</t>
+          <t>-10,57; 19,85</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-16,62; 11,59</t>
+          <t>-14,51; 19,41</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-18,07; 9,05</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-8,39; 37,91</t>
         </is>
       </c>
     </row>
@@ -751,37 +807,47 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,34</t>
+          <t>-1,82</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,64</t>
+          <t>4,81</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,75</t>
+          <t>4,9</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-9,26%</t>
+          <t>-1,37</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>18,76%</t>
+          <t>-7,16%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>23,1%</t>
+          <t>20,03%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>23,53%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-4,12%</t>
         </is>
       </c>
     </row>
@@ -794,74 +860,90 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,99; 2,7</t>
+          <t>-8,62; 3,6</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 10,46</t>
+          <t>-0,95; 10,7</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 10,05</t>
+          <t>-0,23; 9,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-30,44; 12,82</t>
+          <t>-13,48; 6,54</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,83; 46,51</t>
+          <t>-29,27; 15,9</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 58,63</t>
+          <t>-3,78; 51,39</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0,29; 52,61</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-32,78; 23,17</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,01</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,28</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,51</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>24,42%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>26,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,96%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -874,70 +956,94 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 13,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 13,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,91; 7,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-11,81; 63,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 65,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-17,26; 33,95</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-2,84</t>
+          <t>4,32</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-8,93</t>
+          <t>6,14</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-3,66</t>
+          <t>2,18</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-5,96%</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-17,26%</t>
+          <t>16,92%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-7,56%</t>
+          <t>25,41%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>8,75%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-0,19%</t>
         </is>
       </c>
     </row>
@@ -950,32 +1056,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,88; 6,22</t>
+          <t>-3,29; 11,18</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-18,01; -1,03</t>
+          <t>-1,95; 12,55</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-11,04; 4,02</t>
+          <t>-4,09; 8,21</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-19,46; 15,16</t>
+          <t>-7,5; 7,96</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-31,2; -1,46</t>
+          <t>-11,62; 50,93</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-21,15; 9,19</t>
+          <t>-6,69; 62,31</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-14,47; 38,99</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-23,86; 35,21</t>
         </is>
       </c>
     </row>
@@ -983,37 +1099,47 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-3,17</t>
+          <t>-3,87</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>2,65</t>
+          <t>-7,72</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2,15</t>
+          <t>-3,57</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-11,42%</t>
+          <t>-9,23</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>10,78%</t>
+          <t>-8,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>8,18%</t>
+          <t>-15,22%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-7,43%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-19,8%</t>
         </is>
       </c>
     </row>
@@ -1026,74 +1152,90 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-11,72; 3,92</t>
+          <t>-11,97; 4,44</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 9,73</t>
+          <t>-16,26; 0,09</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-4,58; 8,49</t>
+          <t>-11,23; 3,2</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-34,81; 16,96</t>
+          <t>-18,62; -1,48</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-14,47; 46,03</t>
+          <t>-22,57; 10,07</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-15,37; 38,08</t>
+          <t>-29,78; 0,24</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-21,06; 7,4</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-35,34; -3,4</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>11,93</t>
+          <t>-0,44</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-7,33</t>
+          <t>1,58</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,61</t>
+          <t>1,39</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>65,43%</t>
+          <t>9,29</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-18,18%</t>
+          <t>-1,7%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,84%</t>
+          <t>6,31%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>5,14%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>35,04%</t>
         </is>
       </c>
     </row>
@@ -1106,32 +1248,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,31; 25,16</t>
+          <t>-7,68; 6,69</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-24,38; 6,65</t>
+          <t>-5,27; 8,35</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-10,68; 10,55</t>
+          <t>-5,19; 7,79</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,95; 197,1</t>
+          <t>0,56; 17,19</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-46,77; 22,25</t>
+          <t>-26,04; 30,13</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-38,75; 69,63</t>
+          <t>-18,46; 37,05</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-16,93; 33,33</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-0,11; 76,24</t>
         </is>
       </c>
     </row>
@@ -1139,37 +1291,47 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>4,61</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-4,8</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>10,94%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-9,7%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1182,70 +1344,94 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-10,72; 20,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-16,55; 18,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-18,64; 8,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-20,84; 69,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-31,13; 55,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-32,19; 19,45</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-16,53</t>
+          <t>9,72</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>6,97</t>
+          <t>-9,72</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>4,18</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-41,69%</t>
+          <t>8,98</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>43,1%</t>
+          <t>50,28%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>14,44%</t>
+          <t>-23,08%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>1,94%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>40,81%</t>
         </is>
       </c>
     </row>
@@ -1258,74 +1444,90 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-33,9; -2,9</t>
+          <t>-1,59; 23,31</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 20,78</t>
+          <t>-26,98; 5,99</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-8,48; 17,29</t>
+          <t>-11,1; 11,37</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-64,01; -6,08</t>
+          <t>-6,55; 24,39</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-23,04; 211,7</t>
+          <t>-9,49; 191,85</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-23,72; 78,16</t>
+          <t>-51,82; 18,55</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-38,83; 76,74</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-23,2; 183,94</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>4,11</t>
+          <t>5,92</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-0,8</t>
+          <t>2,29</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-0,33</t>
+          <t>-3,69</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>16,86%</t>
+          <t>-3,75</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-2,72%</t>
+          <t>14,5%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-1,19%</t>
+          <t>5,54%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-7,61%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-8,86%</t>
         </is>
       </c>
     </row>
@@ -1338,32 +1540,42 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 8,39</t>
+          <t>-9,9; 20,58</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-5,83; 4,01</t>
+          <t>-13,38; 18,61</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-4,89; 3,77</t>
+          <t>-16,83; 9,63</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 38,82</t>
+          <t>-22,61; 17,12</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-17,73; 15,44</t>
+          <t>-19,97; 64,55</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-16,24; 14,93</t>
+          <t>-26,71; 59,82</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-30,11; 25,09</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-41,2; 59,65</t>
         </is>
       </c>
     </row>
@@ -1371,37 +1583,47 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>-15,64</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-3,41</t>
+          <t>7,43</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-3,17</t>
+          <t>3,27</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,68%</t>
+          <t>-5,23</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-7,28%</t>
+          <t>-39,23%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-6,55%</t>
+          <t>44,66%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>11,15%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>-14,64%</t>
         </is>
       </c>
     </row>
@@ -1414,32 +1636,42 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-5,08; 5,6</t>
+          <t>-32,89; -1,84</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-8,83; 1,73</t>
+          <t>-4,53; 19,84</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-7,82; 1,5</t>
+          <t>-11,98; 14,82</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-10,04; 12,68</t>
+          <t>-31,18; 12,25</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-17,63; 3,96</t>
+          <t>-65,67; -5,77</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-15,34; 3,18</t>
+          <t>-20,61; 187,25</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-32,89; 64,18</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-59,39; 53,91</t>
         </is>
       </c>
     </row>
@@ -1447,37 +1679,47 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-4,44</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>4,21</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>3,5</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-15,81%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>17,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>14,66%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1490,44 +1732,449 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-9,47; 0,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 8,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 7,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-29,52; 1,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 38,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 32,59</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>3,29</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>-1,13</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>0,07</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>-0,29</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>13,47%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>-3,72%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>0,26%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>-1,09%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>-1,15; 6,98</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>-6,2; 3,74</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>-4,13; 4,89</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>-5,06; 4,73</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>-4,42; 31,07</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>-18,72; 13,57</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-13,74; 19,89</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-17,36; 20,02</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>-0,31</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>-2,78</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>-3,25</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>-2,11</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>-0,63%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>-6,03%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>-6,75%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>-4,91%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>-5,47; 4,35</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-8,0; 2,54</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>-8,2; 1,29</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>-7,74; 3,9</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-10,8; 9,6</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-16,36; 5,85</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-16,21; 2,86</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-16,91; 9,94</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>-2,99</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>3,91</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>3,18</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>2,39</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>-10,88%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>16,61%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>13,04%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>7,75%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-7,5; 1,78</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-0,56; 7,84</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-0,51; 7,15</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>-5,58; 7,85</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-25,21; 6,8</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-2,37; 35,49</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>-2,0; 32,52</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>-15,6; 29,54</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
